--- a/新大楼创新部分管理/钥匙名录.xlsx
+++ b/新大楼创新部分管理/钥匙名录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/新大楼创新部分管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Woody\Git Workspaces\workzone\新大楼创新部分管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>创新区域房间</t>
     <rPh sb="0" eb="1">
@@ -66,12 +66,36 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>王倬然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘娟蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪丹华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏绍飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑育宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +143,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -387,21 +414,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>436</v>
       </c>
@@ -429,13 +456,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>439</v>
       </c>
@@ -451,8 +481,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>445</v>
       </c>
@@ -468,8 +501,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>558</v>
       </c>
@@ -489,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>-2</v>
       </c>
@@ -506,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>559</v>
       </c>
@@ -526,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9">
         <v>-2</v>
       </c>
@@ -543,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>561</v>
       </c>
@@ -560,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>565</v>
       </c>
@@ -580,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>-2</v>
       </c>
@@ -597,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>569</v>
       </c>
@@ -614,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>570</v>
       </c>
@@ -634,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>-2</v>
       </c>
@@ -651,12 +687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>571</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>572</v>
       </c>
@@ -672,8 +708,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>573</v>
       </c>
@@ -689,8 +728,14 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>634</v>
       </c>
@@ -710,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="B20">
         <v>-2</v>
       </c>
@@ -727,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>635</v>
       </c>
@@ -747,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="B22">
         <v>-2</v>
       </c>
@@ -764,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>637</v>
       </c>
@@ -784,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="B24">
         <v>-2</v>
       </c>
@@ -801,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>643</v>
       </c>
@@ -821,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="B26">
         <v>-2</v>
       </c>
@@ -841,5 +886,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>